--- a/new-table-builders/tests/test-3-return.xlsx
+++ b/new-table-builders/tests/test-3-return.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="37980" yWindow="6860" windowWidth="25600" windowHeight="13840" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40340" yWindow="660" windowWidth="25600" windowHeight="13840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="display" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="189">
   <si>
     <t>direct count</t>
   </si>
@@ -395,6 +395,198 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>WP1403</t>
+  </si>
+  <si>
+    <t>WikiPathways_20170210</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>WP3678</t>
+  </si>
+  <si>
+    <t>WP138</t>
+  </si>
+  <si>
+    <t>WP3915</t>
+  </si>
+  <si>
+    <t>WP3680</t>
+  </si>
+  <si>
+    <t>WP23</t>
+  </si>
+  <si>
+    <t>WP3676</t>
+  </si>
+  <si>
+    <t>WP2795</t>
+  </si>
+  <si>
+    <t>WP3929</t>
+  </si>
+  <si>
+    <t>WP3594</t>
+  </si>
+  <si>
+    <t>WP3286</t>
+  </si>
+  <si>
+    <t>WP710</t>
+  </si>
+  <si>
+    <t>WP262</t>
+  </si>
+  <si>
+    <t>WP437</t>
+  </si>
+  <si>
+    <t>WP581</t>
+  </si>
+  <si>
+    <t>WP3931</t>
+  </si>
+  <si>
+    <t>WP3850</t>
+  </si>
+  <si>
+    <t>WP314</t>
+  </si>
+  <si>
+    <t>WP306</t>
+  </si>
+  <si>
+    <t>WP3932</t>
+  </si>
+  <si>
+    <t>WP3657</t>
+  </si>
+  <si>
+    <t>WP195</t>
+  </si>
+  <si>
+    <t>WP127</t>
+  </si>
+  <si>
+    <t>WP364</t>
+  </si>
+  <si>
+    <t>WP2112</t>
+  </si>
+  <si>
+    <t>WP481</t>
+  </si>
+  <si>
+    <t>WP1984</t>
+  </si>
+  <si>
+    <t>WP1971</t>
+  </si>
+  <si>
+    <t>WP2377</t>
+  </si>
+  <si>
+    <t>WP3935</t>
+  </si>
+  <si>
+    <t>WP2034</t>
+  </si>
+  <si>
+    <t>WP382</t>
+  </si>
+  <si>
+    <t>WP3937</t>
+  </si>
+  <si>
+    <t>WP1544</t>
+  </si>
+  <si>
+    <t>WP288</t>
+  </si>
+  <si>
+    <t>WP400</t>
+  </si>
+  <si>
+    <t>WP3651</t>
+  </si>
+  <si>
+    <t>WP3844</t>
+  </si>
+  <si>
+    <t>WP2037</t>
+  </si>
+  <si>
+    <t>WP2018</t>
+  </si>
+  <si>
+    <t>WP51</t>
+  </si>
+  <si>
+    <t>WP3872</t>
+  </si>
+  <si>
+    <t>WP2038</t>
+  </si>
+  <si>
+    <t>WP1449</t>
+  </si>
+  <si>
+    <t>WP3865</t>
+  </si>
+  <si>
+    <t>WP615</t>
+  </si>
+  <si>
+    <t>WP313</t>
+  </si>
+  <si>
+    <t>WP2261</t>
+  </si>
+  <si>
+    <t>WP2637</t>
+  </si>
+  <si>
+    <t>WP69</t>
+  </si>
+  <si>
+    <t>WP3863</t>
+  </si>
+  <si>
+    <t>WP2583</t>
+  </si>
+  <si>
+    <t>WP366</t>
+  </si>
+  <si>
+    <t>WP3851</t>
+  </si>
+  <si>
+    <t>WP231</t>
+  </si>
+  <si>
+    <t>WP2036</t>
+  </si>
+  <si>
+    <t>WP75</t>
+  </si>
+  <si>
+    <t>WP399</t>
+  </si>
+  <si>
+    <t>WP363</t>
+  </si>
+  <si>
+    <t>wpid</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
 </sst>
 </file>
@@ -1449,19 +1641,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -1469,841 +1662,1381 @@
         <v>124</v>
       </c>
       <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>110</v>
       </c>
-      <c r="C2">
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+      <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="C8">
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10">
+      <c r="G11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>121</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>5294</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>5728</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>5294</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>5294</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>6885</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>5728</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
         <v>5728</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>87</v>
       </c>
       <c r="B48" t="s">
         <v>88</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
+      <c r="C48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>6885</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
         <v>5728</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
         <v>103</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B59" t="s">
         <v>104</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
+      <c r="C59" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>6885</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
         <v>6885</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>6885</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:D60">
-    <sortCondition descending="1" ref="C1"/>
+  <sortState ref="A2:G60">
+    <sortCondition descending="1" ref="F2:F60"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
